--- a/国内Android端末一覧表.xlsx
+++ b/国内Android端末一覧表.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="2860" yWindow="620" windowWidth="25600" windowHeight="17800" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Android" state="visible" r:id="rId3"/>
+    <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="379">
   <si>
     <t>DoCoMo</t>
   </si>
@@ -1112,433 +1120,257 @@
   </si>
   <si>
     <t>NE-202</t>
+  </si>
+  <si>
+    <t>204SH</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>シンプルスマホ</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>4.0.4</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>202K</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>SHL22</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>AQUOS PHONE SERIE</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <r>
+      <t>WX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>DIGNO R</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>DIGNODUAL2</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="31"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="45">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <sz val="6"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="20.0"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1573,12 +1405,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,19 +1458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,7 +1499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1695,42 +1509,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1739,110 +1553,46 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1852,17 +1602,32 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1870,57 +1635,46 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,7 +1682,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1937,20 +1691,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1958,11 +1712,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1970,10 +1724,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1981,7 +1735,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1990,10 +1744,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2001,19 +1755,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2021,7 +1766,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2029,10 +1774,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2041,22 +1786,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2064,10 +1809,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2075,10 +1820,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2088,7 +1833,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2096,2587 +1841,2942 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="3" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="4" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="5">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="6"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="7">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="8" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="9">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="10" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="11"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="12">
-      <alignment vertical="bottom" horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="13">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="14" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="15" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="16" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="17" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="11" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="18" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="19">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="20" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="21">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="22"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="23">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="24" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="25" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="26" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="27">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="28" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="29">
-      <alignment vertical="center" horizontal="left"/>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="30" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="28" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="31">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="32">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="33">
-      <alignment vertical="bottom" horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="34" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="35" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="36" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="32" applyFont="1" fontId="37" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="33" applyFont="1" fontId="38">
-      <alignment vertical="bottom" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="34" applyFont="1" fontId="39" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="40" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="36" applyFont="1" fontId="41" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="37" applyFont="1" fontId="42" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="43" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="44">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:XFD78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.71" defaultRowHeight="18.0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="17.43"/>
-    <col min="2" customWidth="1" max="2" width="28.14"/>
-    <col min="3" customWidth="1" max="3" width="32.86"/>
-    <col min="4" customWidth="1" max="4" style="15" width="36.29"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="18" r="A1">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c s="33" r="B1"/>
-      <c s="33" r="C1"/>
-      <c s="41" r="D1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="10" r="A2">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="46" r="B2">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="46" r="C2">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="31" r="D2">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="24" r="A3">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="36" r="B3">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c s="7" r="C3"/>
-      <c t="s" s="26" r="D3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c s="24" r="A4"/>
-      <c t="s" s="36" r="B4">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="36" r="C4">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="26" r="D4">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c s="24" r="A5"/>
-      <c t="s" s="36" r="B5">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="32" r="C5">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="26" r="D5">
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c s="24" r="A6"/>
-      <c t="s" s="36" r="B6">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="36" r="C6">
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="26" r="D6">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c s="24" r="A7"/>
-      <c t="s" s="36" r="B7">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="36" r="C7">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="26" r="D7">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
-      <c s="24" r="A8"/>
-      <c t="s" s="36" r="B8">
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="36" r="C8">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="26" r="D8">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
-      <c s="24" r="A9"/>
-      <c t="s" s="36" r="B9">
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="36" r="C9">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="26" r="D9">
+      <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
-      <c s="24" r="A10"/>
-      <c t="s" s="36" r="B10">
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="36" r="C10">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="26" r="D10">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
-      <c s="24" r="A11"/>
-      <c t="s" s="36" r="B11">
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="36" r="C11">
+      <c r="C11" s="16" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="26" r="D11">
+      <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
-      <c s="24" r="A12"/>
-      <c t="s" s="36" r="B12">
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="36" r="C12">
+      <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="26" r="D12">
+      <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13">
-      <c s="24" r="A13"/>
-      <c t="s" s="36" r="B13">
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="36" r="C13">
+      <c r="C13" s="16" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="26" r="D13">
+      <c r="D13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c s="24" r="A14"/>
-      <c t="s" s="36" r="B14">
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="36" r="C14">
+      <c r="C14" s="16" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="26" r="D14">
+      <c r="D14" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15">
-      <c s="24" r="A15"/>
-      <c t="s" s="36" r="B15">
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="36" r="C15">
+      <c r="C15" s="16" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="26" r="D15">
+      <c r="D15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16">
-      <c s="24" r="A16"/>
-      <c t="s" s="36" r="B16">
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="36" r="C16">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="26" r="D16">
+      <c r="D16" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17">
-      <c s="24" r="A17"/>
-      <c t="s" s="36" r="B17">
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="36" r="C17">
+      <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="26" r="D17">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18">
-      <c t="s" s="24" r="A18">
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="36" r="B18">
+      <c r="B18" s="16" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="36" r="C18">
+      <c r="C18" s="16" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="26" r="D18">
+      <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
-      <c s="24" r="A19"/>
-      <c t="s" s="36" r="B19">
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="36" r="C19">
+      <c r="C19" s="16" t="s">
         <v>44</v>
       </c>
-      <c t="s" s="26" r="D19">
+      <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c s="24" r="A20"/>
-      <c t="s" s="36" r="B20">
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="36" r="C20">
+      <c r="C20" s="16" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="26" r="D20">
+      <c r="D20" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21">
-      <c t="s" s="24" r="A21">
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="36" r="B21">
+      <c r="B21" s="16" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="36" r="C21">
+      <c r="C21" s="16" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="26" r="D21">
+      <c r="D21" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22">
-      <c s="24" r="A22"/>
-      <c t="s" s="36" r="B22">
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="36" r="C22">
+      <c r="C22" s="16" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="26" r="D22">
+      <c r="D22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23">
-      <c s="24" r="A23"/>
-      <c t="s" s="36" r="B23">
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="36" r="C23">
+      <c r="C23" s="16" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="26" r="D23">
+      <c r="D23" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24">
-      <c s="24" r="A24"/>
-      <c t="s" s="36" r="B24">
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="36" r="C24">
+      <c r="C24" s="16" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="26" r="D24">
+      <c r="D24" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25">
-      <c s="24" r="A25"/>
-      <c t="s" s="36" r="B25">
+    <row r="25" spans="1:4" ht="18" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="36" r="C25">
+      <c r="C25" s="16" t="s">
         <v>60</v>
       </c>
-      <c t="s" s="26" r="D25">
+      <c r="D25" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26">
-      <c s="24" r="A26"/>
-      <c t="s" s="36" r="B26">
+    <row r="26" spans="1:4" ht="18" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16" t="s">
         <v>61</v>
       </c>
-      <c t="s" s="36" r="C26">
+      <c r="C26" s="16" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="26" r="D26">
+      <c r="D26" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27">
-      <c s="24" r="A27"/>
-      <c t="s" s="36" r="B27">
+    <row r="27" spans="1:4" ht="18" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="36" r="C27">
+      <c r="C27" s="16" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="26" r="D27">
+      <c r="D27" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28">
-      <c s="24" r="A28"/>
-      <c t="s" s="36" r="B28">
+    <row r="28" spans="1:4" ht="18" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="36" r="C28">
+      <c r="C28" s="16" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="26" r="D28">
+      <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29">
-      <c s="24" r="A29"/>
-      <c t="s" s="36" r="B29">
+    <row r="29" spans="1:4" ht="18" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="36" r="C29">
+      <c r="C29" s="16" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="26" r="D29">
+      <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30">
-      <c t="s" s="24" r="A30">
+    <row r="30" spans="1:4" ht="18" customHeight="1">
+      <c r="A30" s="11" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="36" r="B30">
+      <c r="B30" s="16" t="s">
         <v>68</v>
       </c>
-      <c t="s" s="36" r="C30">
+      <c r="C30" s="16" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="26" r="D30">
+      <c r="D30" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31">
-      <c s="24" r="A31"/>
-      <c t="s" s="36" r="B31">
+    <row r="31" spans="1:4" ht="18" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16" t="s">
         <v>70</v>
       </c>
-      <c t="s" s="36" r="C31">
+      <c r="C31" s="16" t="s">
         <v>71</v>
       </c>
-      <c t="s" s="26" r="D31">
+      <c r="D31" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32">
-      <c s="24" r="A32"/>
-      <c t="s" s="36" r="B32">
+    <row r="32" spans="1:4" ht="18" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16" t="s">
         <v>72</v>
       </c>
-      <c t="s" s="36" r="C32">
+      <c r="C32" s="16" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="26" r="D32">
+      <c r="D32" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33">
-      <c s="24" r="A33"/>
-      <c t="s" s="36" r="B33">
+    <row r="33" spans="1:4" ht="18" customHeight="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16" t="s">
         <v>73</v>
       </c>
-      <c t="s" s="36" r="C33">
+      <c r="C33" s="16" t="s">
         <v>74</v>
       </c>
-      <c t="s" s="26" r="D33">
+      <c r="D33" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34">
-      <c s="24" r="A34"/>
-      <c t="s" s="36" r="B34">
+    <row r="34" spans="1:4" ht="18" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
-      <c t="s" s="36" r="C34">
+      <c r="C34" s="16" t="s">
         <v>77</v>
       </c>
-      <c t="s" s="26" r="D34">
+      <c r="D34" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35">
-      <c s="24" r="A35"/>
-      <c t="s" s="36" r="B35">
+    <row r="35" spans="1:4" ht="18" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16" t="s">
         <v>78</v>
       </c>
-      <c t="s" s="36" r="C35">
+      <c r="C35" s="16" t="s">
         <v>79</v>
       </c>
-      <c t="s" s="26" r="D35">
+      <c r="D35" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36">
-      <c s="24" r="A36"/>
-      <c t="s" s="36" r="B36">
+    <row r="36" spans="1:4" ht="18" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16" t="s">
         <v>80</v>
       </c>
-      <c t="s" s="36" r="C36">
+      <c r="C36" s="16" t="s">
         <v>81</v>
       </c>
-      <c t="s" s="26" r="D36">
+      <c r="D36" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37">
-      <c s="24" r="A37"/>
-      <c t="s" s="36" r="B37">
+    <row r="37" spans="1:4" ht="18" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16" t="s">
         <v>82</v>
       </c>
-      <c t="s" s="36" r="C37">
+      <c r="C37" s="16" t="s">
         <v>83</v>
       </c>
-      <c t="s" s="26" r="D37">
+      <c r="D37" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38">
-      <c s="24" r="A38"/>
-      <c t="s" s="36" r="B38">
+    <row r="38" spans="1:4" ht="18" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16" t="s">
         <v>85</v>
       </c>
-      <c t="s" s="36" r="C38">
+      <c r="C38" s="16" t="s">
         <v>86</v>
       </c>
-      <c t="s" s="26" r="D38">
+      <c r="D38" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39">
-      <c s="24" r="A39"/>
-      <c t="s" s="36" r="B39">
+    <row r="39" spans="1:4" ht="18" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16" t="s">
         <v>87</v>
       </c>
-      <c t="s" s="36" r="C39">
+      <c r="C39" s="16" t="s">
         <v>77</v>
       </c>
-      <c s="26" r="D39"/>
-    </row>
-    <row r="40">
-      <c s="24" r="A40"/>
-      <c t="s" s="36" r="B40">
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16" t="s">
         <v>88</v>
       </c>
-      <c t="s" s="36" r="C40">
+      <c r="C40" s="16" t="s">
         <v>77</v>
       </c>
-      <c t="s" s="26" r="D40">
+      <c r="D40" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41">
-      <c s="24" r="A41"/>
-      <c t="s" s="36" r="B41">
+    <row r="41" spans="1:4" ht="18" customHeight="1">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
-      <c t="s" s="36" r="C41">
+      <c r="C41" s="16" t="s">
         <v>86</v>
       </c>
-      <c t="s" s="26" r="D41">
+      <c r="D41" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42">
-      <c t="s" s="24" r="A42">
+    <row r="42" spans="1:4" ht="18" customHeight="1">
+      <c r="A42" s="11" t="s">
         <v>90</v>
       </c>
-      <c t="s" s="36" r="B42">
+      <c r="B42" s="16" t="s">
         <v>91</v>
       </c>
-      <c s="36" r="C42"/>
-      <c t="s" s="26" r="D42">
+      <c r="C42" s="16"/>
+      <c r="D42" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43">
-      <c s="24" r="A43"/>
-      <c t="s" s="36" r="B43">
+    <row r="43" spans="1:4" ht="18" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="16" t="s">
         <v>92</v>
       </c>
-      <c s="36" r="C43"/>
-      <c t="s" s="26" r="D43">
+      <c r="C43" s="16"/>
+      <c r="D43" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44">
-      <c s="24" r="A44"/>
-      <c t="s" s="36" r="B44">
+    <row r="44" spans="1:4" ht="18" customHeight="1">
+      <c r="A44" s="11"/>
+      <c r="B44" s="16" t="s">
         <v>93</v>
       </c>
-      <c t="s" s="36" r="C44">
+      <c r="C44" s="16" t="s">
         <v>94</v>
       </c>
-      <c t="s" s="26" r="D44">
+      <c r="D44" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45">
-      <c s="24" r="A45"/>
-      <c t="s" s="36" r="B45">
+    <row r="45" spans="1:4" ht="18" customHeight="1">
+      <c r="A45" s="11"/>
+      <c r="B45" s="16" t="s">
         <v>95</v>
       </c>
-      <c t="s" s="36" r="C45">
+      <c r="C45" s="16" t="s">
         <v>96</v>
       </c>
-      <c t="s" s="26" r="D45">
+      <c r="D45" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46">
-      <c s="24" r="A46"/>
-      <c t="s" s="36" r="B46">
+    <row r="46" spans="1:4" ht="18" customHeight="1">
+      <c r="A46" s="11"/>
+      <c r="B46" s="16" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="36" r="C46">
+      <c r="C46" s="16" t="s">
         <v>98</v>
       </c>
-      <c t="s" s="26" r="D46">
+      <c r="D46" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47">
-      <c s="24" r="A47"/>
-      <c t="s" s="36" r="B47">
+    <row r="47" spans="1:4" ht="18" customHeight="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="16" t="s">
         <v>99</v>
       </c>
-      <c s="36" r="C47"/>
-      <c t="s" s="26" r="D47">
+      <c r="C47" s="16"/>
+      <c r="D47" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48">
-      <c s="24" r="A48"/>
-      <c t="s" s="36" r="B48">
+    <row r="48" spans="1:4" ht="18" customHeight="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="16" t="s">
         <v>100</v>
       </c>
-      <c t="s" s="36" r="C48">
+      <c r="C48" s="16" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="26" r="D48">
+      <c r="D48" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49">
-      <c s="24" r="A49"/>
-      <c t="s" s="36" r="B49">
+    <row r="49" spans="1:4" ht="18" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="16" t="s">
         <v>101</v>
       </c>
-      <c t="s" s="36" r="C49">
+      <c r="C49" s="16" t="s">
         <v>102</v>
       </c>
-      <c t="s" s="26" r="D49">
+      <c r="D49" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50">
-      <c s="24" r="A50"/>
-      <c t="s" s="36" r="B50">
+    <row r="50" spans="1:4" ht="18" customHeight="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="16" t="s">
         <v>103</v>
       </c>
-      <c t="s" s="36" r="C50">
+      <c r="C50" s="16" t="s">
         <v>104</v>
       </c>
-      <c t="s" s="26" r="D50">
+      <c r="D50" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51">
-      <c s="24" r="A51"/>
-      <c t="s" s="36" r="B51">
+    <row r="51" spans="1:4" ht="18" customHeight="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="16" t="s">
         <v>105</v>
       </c>
-      <c t="s" s="36" r="C51">
+      <c r="C51" s="16" t="s">
         <v>106</v>
       </c>
-      <c t="s" s="26" r="D51">
+      <c r="D51" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52">
-      <c t="s" s="24" r="A52">
+    <row r="52" spans="1:4" ht="18" customHeight="1">
+      <c r="A52" s="11" t="s">
         <v>107</v>
       </c>
-      <c t="s" s="36" r="B52">
+      <c r="B52" s="16" t="s">
         <v>108</v>
       </c>
-      <c t="s" s="36" r="C52">
+      <c r="C52" s="16" t="s">
         <v>109</v>
       </c>
-      <c t="s" s="26" r="D52">
+      <c r="D52" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53">
-      <c s="2" r="A53"/>
-      <c t="s" s="36" r="B53">
+    <row r="53" spans="1:4" ht="18" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="16" t="s">
         <v>111</v>
       </c>
-      <c t="s" s="36" r="C53">
+      <c r="C53" s="16" t="s">
         <v>112</v>
       </c>
-      <c t="s" s="26" r="D53">
+      <c r="D53" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54">
-      <c s="2" r="A54"/>
-      <c t="s" s="36" r="B54">
+    <row r="54" spans="1:4" ht="18" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="16" t="s">
         <v>114</v>
       </c>
-      <c t="s" s="36" r="C54">
+      <c r="C54" s="16" t="s">
         <v>115</v>
       </c>
-      <c t="s" s="26" r="D54">
+      <c r="D54" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55">
-      <c s="2" r="A55"/>
-      <c t="s" s="36" r="B55">
+    <row r="55" spans="1:4" ht="18" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="16" t="s">
         <v>116</v>
       </c>
-      <c t="s" s="36" r="C55">
+      <c r="C55" s="16" t="s">
         <v>117</v>
       </c>
-      <c t="s" s="26" r="D55">
+      <c r="D55" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56">
-      <c s="24" r="A56"/>
-      <c t="s" s="36" r="B56">
+    <row r="56" spans="1:4" ht="18" customHeight="1">
+      <c r="A56" s="11"/>
+      <c r="B56" s="16" t="s">
         <v>119</v>
       </c>
-      <c t="s" s="36" r="C56">
+      <c r="C56" s="16" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="26" r="D56">
+      <c r="D56" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57">
-      <c s="24" r="A57"/>
-      <c t="s" s="36" r="B57">
+    <row r="57" spans="1:4" ht="18" customHeight="1">
+      <c r="A57" s="11"/>
+      <c r="B57" s="16" t="s">
         <v>122</v>
       </c>
-      <c t="s" s="36" r="C57">
+      <c r="C57" s="16" t="s">
         <v>109</v>
       </c>
-      <c t="s" s="26" r="D57">
+      <c r="D57" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58">
-      <c s="24" r="A58"/>
-      <c t="s" s="36" r="B58">
+    <row r="58" spans="1:4" ht="18" customHeight="1">
+      <c r="A58" s="11"/>
+      <c r="B58" s="16" t="s">
         <v>123</v>
       </c>
-      <c t="s" s="36" r="C58">
+      <c r="C58" s="16" t="s">
         <v>124</v>
       </c>
-      <c t="s" s="26" r="D58">
+      <c r="D58" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59">
-      <c s="24" r="A59"/>
-      <c t="s" s="36" r="B59">
+    <row r="59" spans="1:4" ht="18" customHeight="1">
+      <c r="A59" s="11"/>
+      <c r="B59" s="16" t="s">
         <v>126</v>
       </c>
-      <c t="s" s="36" r="C59">
+      <c r="C59" s="16" t="s">
         <v>127</v>
       </c>
-      <c t="s" s="26" r="D59">
+      <c r="D59" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60">
-      <c s="24" r="A60"/>
-      <c t="s" s="36" r="B60">
+    <row r="60" spans="1:4" ht="18" customHeight="1">
+      <c r="A60" s="11"/>
+      <c r="B60" s="16" t="s">
         <v>128</v>
       </c>
-      <c t="s" s="36" r="C60">
+      <c r="C60" s="16" t="s">
         <v>129</v>
       </c>
-      <c t="s" s="26" r="D60">
+      <c r="D60" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61">
-      <c s="24" r="A61"/>
-      <c t="s" s="36" r="B61">
+    <row r="61" spans="1:4" ht="18" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="16" t="s">
         <v>130</v>
       </c>
-      <c t="s" s="36" r="C61">
+      <c r="C61" s="16" t="s">
         <v>131</v>
       </c>
-      <c t="s" s="26" r="D61">
+      <c r="D61" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62">
-      <c s="24" r="A62"/>
-      <c t="s" s="36" r="B62">
+    <row r="62" spans="1:4" ht="18" customHeight="1">
+      <c r="A62" s="11"/>
+      <c r="B62" s="16" t="s">
         <v>133</v>
       </c>
-      <c t="s" s="36" r="C62">
+      <c r="C62" s="16" t="s">
         <v>134</v>
       </c>
-      <c t="s" s="26" r="D62">
+      <c r="D62" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63">
-      <c s="24" r="A63"/>
-      <c t="s" s="36" r="B63">
+    <row r="63" spans="1:4" ht="18" customHeight="1">
+      <c r="A63" s="11"/>
+      <c r="B63" s="16" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="36" r="C63">
+      <c r="C63" s="16" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="26" r="D63">
+      <c r="D63" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64">
-      <c s="24" r="A64"/>
-      <c t="s" s="36" r="B64">
+    <row r="64" spans="1:4" ht="18" customHeight="1">
+      <c r="A64" s="11"/>
+      <c r="B64" s="16" t="s">
         <v>137</v>
       </c>
-      <c t="s" s="36" r="C64">
+      <c r="C64" s="16" t="s">
         <v>138</v>
       </c>
-      <c t="s" s="26" r="D64">
+      <c r="D64" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65">
-      <c t="s" s="24" r="A65">
+    <row r="65" spans="1:4" ht="18" customHeight="1">
+      <c r="A65" s="11" t="s">
         <v>139</v>
       </c>
-      <c t="s" s="36" r="B65">
+      <c r="B65" s="16" t="s">
         <v>140</v>
       </c>
-      <c t="s" s="36" r="C65">
+      <c r="C65" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D65">
+      <c r="D65" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66">
-      <c s="24" r="A66"/>
-      <c t="s" s="36" r="B66">
+    <row r="66" spans="1:4" ht="18" customHeight="1">
+      <c r="A66" s="11"/>
+      <c r="B66" s="16" t="s">
         <v>142</v>
       </c>
-      <c t="s" s="36" r="C66">
+      <c r="C66" s="16" t="s">
         <v>143</v>
       </c>
-      <c t="s" s="26" r="D66">
+      <c r="D66" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67">
-      <c s="24" r="A67"/>
-      <c t="s" s="36" r="B67">
+    <row r="67" spans="1:4" ht="18" customHeight="1">
+      <c r="A67" s="11"/>
+      <c r="B67" s="16" t="s">
         <v>144</v>
       </c>
-      <c t="s" s="36" r="C67">
+      <c r="C67" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D67">
+      <c r="D67" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68">
-      <c s="24" r="A68"/>
-      <c t="s" s="36" r="B68">
+    <row r="68" spans="1:4" ht="18" customHeight="1">
+      <c r="A68" s="11"/>
+      <c r="B68" s="16" t="s">
         <v>145</v>
       </c>
-      <c t="s" s="36" r="C68">
+      <c r="C68" s="16" t="s">
         <v>146</v>
       </c>
-      <c t="s" s="26" r="D68">
+      <c r="D68" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69">
-      <c s="24" r="A69"/>
-      <c t="s" s="36" r="B69">
+    <row r="69" spans="1:4" ht="18" customHeight="1">
+      <c r="A69" s="11"/>
+      <c r="B69" s="16" t="s">
         <v>147</v>
       </c>
-      <c t="s" s="36" r="C69">
+      <c r="C69" s="16" t="s">
         <v>146</v>
       </c>
-      <c t="s" s="26" r="D69">
+      <c r="D69" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70">
-      <c s="24" r="A70"/>
-      <c t="s" s="36" r="B70">
+    <row r="70" spans="1:4" ht="18" customHeight="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="16" t="s">
         <v>148</v>
       </c>
-      <c t="s" s="36" r="C70">
+      <c r="C70" s="16" t="s">
         <v>149</v>
       </c>
-      <c t="s" s="26" r="D70">
+      <c r="D70" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71">
-      <c s="24" r="A71"/>
-      <c t="s" s="36" r="B71">
+    <row r="71" spans="1:4" ht="18" customHeight="1">
+      <c r="A71" s="11"/>
+      <c r="B71" s="16" t="s">
         <v>150</v>
       </c>
-      <c t="s" s="36" r="C71">
+      <c r="C71" s="16" t="s">
         <v>151</v>
       </c>
-      <c t="s" s="26" r="D71">
+      <c r="D71" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72">
-      <c s="24" r="A72"/>
-      <c t="s" s="36" r="B72">
+    <row r="72" spans="1:4" ht="18" customHeight="1">
+      <c r="A72" s="11"/>
+      <c r="B72" s="16" t="s">
         <v>152</v>
       </c>
-      <c t="s" s="36" r="C72">
+      <c r="C72" s="16" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="26" r="D72">
+      <c r="D72" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73">
-      <c s="24" r="A73"/>
-      <c t="s" s="36" r="B73">
+    <row r="73" spans="1:4" ht="18" customHeight="1">
+      <c r="A73" s="11"/>
+      <c r="B73" s="16" t="s">
         <v>154</v>
       </c>
-      <c t="s" s="36" r="C73">
+      <c r="C73" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D73">
+      <c r="D73" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74">
-      <c s="24" r="A74"/>
-      <c t="s" s="36" r="B74">
+    <row r="74" spans="1:4" ht="18" customHeight="1">
+      <c r="A74" s="11"/>
+      <c r="B74" s="16" t="s">
         <v>154</v>
       </c>
-      <c t="s" s="36" r="C74">
+      <c r="C74" s="16" t="s">
         <v>155</v>
       </c>
-      <c t="s" s="26" r="D74">
+      <c r="D74" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75">
-      <c s="24" r="A75"/>
-      <c t="s" s="36" r="B75">
+    <row r="75" spans="1:4" ht="18" customHeight="1">
+      <c r="A75" s="11"/>
+      <c r="B75" s="16" t="s">
         <v>156</v>
       </c>
-      <c t="s" s="36" r="C75">
+      <c r="C75" s="16" t="s">
         <v>151</v>
       </c>
-      <c t="s" s="26" r="D75">
+      <c r="D75" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76">
-      <c s="24" r="A76"/>
-      <c t="s" s="36" r="B76">
+    <row r="76" spans="1:4" ht="18" customHeight="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="16" t="s">
         <v>157</v>
       </c>
-      <c t="s" s="36" r="C76">
+      <c r="C76" s="16" t="s">
         <v>158</v>
       </c>
-      <c t="s" s="26" r="D76">
+      <c r="D76" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77">
-      <c s="24" r="A77"/>
-      <c t="s" s="36" r="B77">
+    <row r="77" spans="1:4" ht="18" customHeight="1">
+      <c r="A77" s="11"/>
+      <c r="B77" s="16" t="s">
         <v>159</v>
       </c>
-      <c t="s" s="36" r="C77">
+      <c r="C77" s="16" t="s">
         <v>146</v>
       </c>
-      <c t="s" s="26" r="D77">
+      <c r="D77" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78">
-      <c s="24" r="A78"/>
-      <c t="s" s="36" r="B78">
+    <row r="78" spans="1:4" ht="18" customHeight="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="16" t="s">
         <v>160</v>
       </c>
-      <c t="s" s="36" r="C78">
+      <c r="C78" s="16" t="s">
         <v>151</v>
       </c>
-      <c t="s" s="26" r="D78">
+      <c r="D78" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79">
-      <c s="24" r="A79"/>
-      <c t="s" s="36" r="B79">
+    <row r="79" spans="1:4" ht="18" customHeight="1">
+      <c r="A79" s="11"/>
+      <c r="B79" s="16" t="s">
         <v>161</v>
       </c>
-      <c t="s" s="36" r="C79">
+      <c r="C79" s="16" t="s">
         <v>162</v>
       </c>
-      <c t="s" s="26" r="D79">
+      <c r="D79" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80">
-      <c t="s" s="24" r="A80">
+    <row r="80" spans="1:4" ht="18" customHeight="1">
+      <c r="A80" s="11" t="s">
         <v>163</v>
       </c>
-      <c t="s" s="36" r="B80">
+      <c r="B80" s="16" t="s">
         <v>164</v>
       </c>
-      <c t="s" s="36" r="C80">
+      <c r="C80" s="16" t="s">
         <v>165</v>
       </c>
-      <c t="s" s="26" r="D80">
+      <c r="D80" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81">
-      <c s="24" r="A81"/>
-      <c t="s" s="36" r="B81">
+    <row r="81" spans="1:4" ht="18" customHeight="1">
+      <c r="A81" s="11"/>
+      <c r="B81" s="16" t="s">
         <v>166</v>
       </c>
-      <c t="s" s="36" r="C81">
+      <c r="C81" s="16" t="s">
         <v>167</v>
       </c>
-      <c t="s" s="26" r="D81">
+      <c r="D81" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="82">
-      <c s="24" r="A82"/>
-      <c t="s" s="36" r="B82">
+    <row r="82" spans="1:4" ht="18" customHeight="1">
+      <c r="A82" s="11"/>
+      <c r="B82" s="16" t="s">
         <v>169</v>
       </c>
-      <c t="s" s="36" r="C82">
+      <c r="C82" s="16" t="s">
         <v>170</v>
       </c>
-      <c t="s" s="26" r="D82">
+      <c r="D82" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83">
-      <c s="24" r="A83"/>
-      <c t="s" s="36" r="B83">
+    <row r="83" spans="1:4" ht="18" customHeight="1">
+      <c r="A83" s="11"/>
+      <c r="B83" s="16" t="s">
         <v>171</v>
       </c>
-      <c t="s" s="36" r="C83">
+      <c r="C83" s="16" t="s">
         <v>172</v>
       </c>
-      <c t="s" s="26" r="D83">
+      <c r="D83" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84">
-      <c s="24" r="A84"/>
-      <c t="s" s="36" r="B84">
+    <row r="84" spans="1:4" ht="18" customHeight="1">
+      <c r="A84" s="11"/>
+      <c r="B84" s="16" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="36" r="C84">
+      <c r="C84" s="16" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="26" r="D84">
+      <c r="D84" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85">
-      <c s="24" r="A85"/>
-      <c t="s" s="36" r="B85">
+    <row r="85" spans="1:4" ht="18" customHeight="1">
+      <c r="A85" s="11"/>
+      <c r="B85" s="16" t="s">
         <v>175</v>
       </c>
-      <c t="s" s="36" r="C85">
+      <c r="C85" s="16" t="s">
         <v>176</v>
       </c>
-      <c t="s" s="26" r="D85">
+      <c r="D85" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="86">
-      <c s="24" r="A86"/>
-      <c t="s" s="36" r="B86">
+    <row r="86" spans="1:4" ht="18" customHeight="1">
+      <c r="A86" s="11"/>
+      <c r="B86" s="16" t="s">
         <v>177</v>
       </c>
-      <c t="s" s="36" r="C86">
+      <c r="C86" s="16" t="s">
         <v>178</v>
       </c>
-      <c t="s" s="26" r="D86">
+      <c r="D86" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87">
-      <c s="24" r="A87"/>
-      <c t="s" s="36" r="B87">
+    <row r="87" spans="1:4" ht="18" customHeight="1">
+      <c r="A87" s="11"/>
+      <c r="B87" s="16" t="s">
         <v>179</v>
       </c>
-      <c t="s" s="36" r="C87">
+      <c r="C87" s="16" t="s">
         <v>180</v>
       </c>
-      <c t="s" s="26" r="D87">
+      <c r="D87" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="88">
-      <c s="24" r="A88"/>
-      <c t="s" s="36" r="B88">
+    <row r="88" spans="1:4" ht="18" customHeight="1">
+      <c r="A88" s="11"/>
+      <c r="B88" s="16" t="s">
         <v>181</v>
       </c>
-      <c t="s" s="36" r="C88">
+      <c r="C88" s="16" t="s">
         <v>182</v>
       </c>
-      <c t="s" s="26" r="D88">
+      <c r="D88" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89">
-      <c s="24" r="A89"/>
-      <c t="s" s="36" r="B89">
+    <row r="89" spans="1:4" ht="18" customHeight="1">
+      <c r="A89" s="11"/>
+      <c r="B89" s="16" t="s">
         <v>183</v>
       </c>
-      <c t="s" s="36" r="C89">
+      <c r="C89" s="16" t="s">
         <v>184</v>
       </c>
-      <c t="s" s="26" r="D89">
+      <c r="D89" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90">
-      <c s="24" r="A90"/>
-      <c t="s" s="36" r="B90">
+    <row r="90" spans="1:4" ht="18" customHeight="1">
+      <c r="A90" s="11"/>
+      <c r="B90" s="16" t="s">
         <v>185</v>
       </c>
-      <c t="s" s="36" r="C90">
+      <c r="C90" s="16" t="s">
         <v>186</v>
       </c>
-      <c t="s" s="26" r="D90">
+      <c r="D90" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91">
-      <c s="24" r="A91"/>
-      <c s="36" r="B91"/>
-      <c t="s" s="36" r="C91">
+    <row r="91" spans="1:4" ht="18" customHeight="1">
+      <c r="A91" s="11"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16" t="s">
         <v>187</v>
       </c>
-      <c t="s" s="26" r="D91">
+      <c r="D91" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92">
-      <c s="24" r="A92"/>
-      <c s="36" r="B92"/>
-      <c t="s" s="36" r="C92">
+    <row r="92" spans="1:4" ht="18" customHeight="1">
+      <c r="A92" s="11"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16" t="s">
         <v>188</v>
       </c>
-      <c t="s" s="26" r="D92">
+      <c r="D92" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93">
-      <c t="s" s="24" r="A93">
+    <row r="93" spans="1:4" ht="18" customHeight="1">
+      <c r="A93" s="11" t="s">
         <v>189</v>
       </c>
-      <c t="s" s="36" r="B93">
+      <c r="B93" s="16" t="s">
         <v>190</v>
       </c>
-      <c t="s" s="36" r="C93">
+      <c r="C93" s="16" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="26" r="D93">
+      <c r="D93" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="94">
-      <c s="24" r="A94"/>
-      <c t="s" s="36" r="B94">
+    <row r="94" spans="1:4" ht="18" customHeight="1">
+      <c r="A94" s="11"/>
+      <c r="B94" s="16" t="s">
         <v>193</v>
       </c>
-      <c t="s" s="36" r="C94">
+      <c r="C94" s="16" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="26" r="D94">
+      <c r="D94" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95">
-      <c s="24" r="A95"/>
-      <c t="s" s="36" r="B95">
+    <row r="95" spans="1:4" ht="18" customHeight="1">
+      <c r="A95" s="11"/>
+      <c r="B95" s="16" t="s">
         <v>194</v>
       </c>
-      <c t="s" s="36" r="C95">
+      <c r="C95" s="16" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="26" r="D95">
+      <c r="D95" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96">
-      <c s="36" r="A96"/>
-      <c s="36" r="B96"/>
-      <c s="36" r="C96"/>
-      <c s="7" r="D96"/>
-    </row>
-    <row r="97">
-      <c t="s" s="29" r="A97">
+    <row r="96" spans="1:4" ht="18" customHeight="1">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" ht="18" customHeight="1">
+      <c r="A97" s="21" t="s">
         <v>195</v>
       </c>
-      <c s="27" r="B97"/>
-      <c s="27" r="C97"/>
-      <c s="45" r="D97"/>
-    </row>
-    <row r="98">
-      <c t="s" s="5" r="A98">
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="23"/>
+    </row>
+    <row r="98" spans="1:4" ht="18" customHeight="1">
+      <c r="A98" s="3" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="23" r="B98">
+      <c r="B98" s="10" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="23" r="C98">
+      <c r="C98" s="10" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="21" r="D98">
+      <c r="D98" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99">
-      <c t="s" s="9" r="A99">
+    <row r="99" spans="1:4" ht="18" customHeight="1">
+      <c r="A99" s="5" t="s">
         <v>196</v>
       </c>
-      <c t="s" s="16" r="B99">
+      <c r="B99" s="8" t="s">
         <v>197</v>
       </c>
-      <c t="s" s="16" r="C99">
+      <c r="C99" s="8" t="s">
         <v>198</v>
       </c>
-      <c t="s" s="3" r="D99">
+      <c r="D99" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100">
-      <c s="24" r="A100"/>
-      <c t="s" s="36" r="B100">
+    <row r="100" spans="1:4" ht="18" customHeight="1">
+      <c r="A100" s="11"/>
+      <c r="B100" s="16" t="s">
         <v>199</v>
       </c>
-      <c t="s" s="36" r="C100">
+      <c r="C100" s="16" t="s">
         <v>200</v>
       </c>
-      <c t="s" s="26" r="D100">
+      <c r="D100" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101">
-      <c t="s" s="24" r="A101">
+    <row r="101" spans="1:4" ht="18" customHeight="1">
+      <c r="A101" s="11" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="36" r="B101">
+      <c r="B101" s="16" t="s">
         <v>201</v>
       </c>
-      <c t="s" s="36" r="C101">
+      <c r="C101" s="16" t="s">
         <v>202</v>
       </c>
-      <c t="s" s="26" r="D101">
+      <c r="D101" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102">
-      <c s="24" r="A102"/>
-      <c t="s" s="36" r="B102">
+    <row r="102" spans="1:4" ht="18" customHeight="1">
+      <c r="A102" s="11"/>
+      <c r="B102" s="16" t="s">
         <v>203</v>
       </c>
-      <c t="s" s="36" r="C102">
+      <c r="C102" s="16" t="s">
         <v>204</v>
       </c>
-      <c t="s" s="26" r="D102">
+      <c r="D102" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103">
-      <c s="24" r="A103"/>
-      <c t="s" s="36" r="B103">
+    <row r="103" spans="1:4" ht="18" customHeight="1">
+      <c r="A103" s="11"/>
+      <c r="B103" s="16" t="s">
         <v>205</v>
       </c>
-      <c t="s" s="36" r="C103">
+      <c r="C103" s="16" t="s">
         <v>206</v>
       </c>
-      <c t="s" s="26" r="D103">
+      <c r="D103" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104">
-      <c s="24" r="A104"/>
-      <c t="s" s="36" r="B104">
+    <row r="104" spans="1:4" ht="18" customHeight="1">
+      <c r="A104" s="11"/>
+      <c r="B104" s="16" t="s">
         <v>207</v>
       </c>
-      <c t="s" s="36" r="C104">
+      <c r="C104" s="16" t="s">
         <v>204</v>
       </c>
-      <c t="s" s="26" r="D104">
+      <c r="D104" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="105">
-      <c t="s" s="24" r="A105">
+    <row r="105" spans="1:4" ht="18" customHeight="1">
+      <c r="A105" s="11" t="s">
         <v>208</v>
       </c>
-      <c t="s" s="36" r="B105">
+      <c r="B105" s="16" t="s">
         <v>209</v>
       </c>
-      <c t="s" s="36" r="C105">
+      <c r="C105" s="16" t="s">
         <v>210</v>
       </c>
-      <c t="s" s="26" r="D105">
+      <c r="D105" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106">
-      <c s="24" r="A106"/>
-      <c t="s" s="36" r="B106">
+    <row r="106" spans="1:4" ht="18" customHeight="1">
+      <c r="A106" s="11"/>
+      <c r="B106" s="16" t="s">
         <v>211</v>
       </c>
-      <c t="s" s="36" r="C106">
+      <c r="C106" s="16" t="s">
         <v>212</v>
       </c>
-      <c t="s" s="26" r="D106">
+      <c r="D106" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107">
-      <c s="24" r="A107"/>
-      <c t="s" s="36" r="B107">
+    <row r="107" spans="1:4" ht="18" customHeight="1">
+      <c r="A107" s="11"/>
+      <c r="B107" s="16" t="s">
         <v>213</v>
       </c>
-      <c t="s" s="36" r="C107">
+      <c r="C107" s="16" t="s">
         <v>214</v>
       </c>
-      <c t="s" s="26" r="D107">
+      <c r="D107" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108">
-      <c s="24" r="A108"/>
-      <c t="s" s="36" r="B108">
+    <row r="108" spans="1:4" ht="18" customHeight="1">
+      <c r="A108" s="11"/>
+      <c r="B108" s="16" t="s">
         <v>215</v>
       </c>
-      <c t="s" s="36" r="C108">
+      <c r="C108" s="16" t="s">
         <v>216</v>
       </c>
-      <c t="s" s="26" r="D108">
+      <c r="D108" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="109">
-      <c s="24" r="A109"/>
-      <c t="s" s="36" r="B109">
+    <row r="109" spans="1:4" ht="18" customHeight="1">
+      <c r="A109" s="11"/>
+      <c r="B109" s="16" t="s">
         <v>218</v>
       </c>
-      <c t="s" s="36" r="C109">
+      <c r="C109" s="16" t="s">
         <v>219</v>
       </c>
-      <c t="s" s="26" r="D109">
+      <c r="D109" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="110">
-      <c s="24" r="A110"/>
-      <c t="s" s="36" r="B110">
+    <row r="110" spans="1:4" ht="18" customHeight="1">
+      <c r="A110" s="11"/>
+      <c r="B110" s="16" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="36" r="C110">
+      <c r="C110" s="16" t="s">
         <v>221</v>
       </c>
-      <c t="s" s="26" r="D110">
+      <c r="D110" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="111">
-      <c t="s" s="24" r="A111">
+    <row r="111" spans="1:4" ht="18" customHeight="1">
+      <c r="A111" s="11" t="s">
         <v>222</v>
       </c>
-      <c t="s" s="36" r="B111">
+      <c r="B111" s="16" t="s">
         <v>223</v>
       </c>
-      <c t="s" s="36" r="C111">
+      <c r="C111" s="16" t="s">
         <v>224</v>
       </c>
-      <c t="s" s="26" r="D111">
+      <c r="D111" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112">
-      <c s="2" r="A112"/>
-      <c t="s" s="36" r="B112">
+    <row r="112" spans="1:4" ht="18" customHeight="1">
+      <c r="A112" s="1"/>
+      <c r="B112" s="16" t="s">
         <v>225</v>
       </c>
-      <c t="s" s="36" r="C112">
+      <c r="C112" s="16" t="s">
         <v>226</v>
       </c>
-      <c t="s" s="26" r="D112">
+      <c r="D112" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113">
-      <c s="2" r="A113"/>
-      <c t="s" s="36" r="B113">
+    <row r="113" spans="1:4" ht="18" customHeight="1">
+      <c r="A113" s="1"/>
+      <c r="B113" s="16" t="s">
         <v>227</v>
       </c>
-      <c t="s" s="36" r="C113">
+      <c r="C113" s="16" t="s">
         <v>228</v>
       </c>
-      <c t="s" s="26" r="D113">
+      <c r="D113" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114">
-      <c s="24" r="A114"/>
-      <c t="s" s="36" r="B114">
+    <row r="114" spans="1:4" ht="18" customHeight="1">
+      <c r="A114" s="11"/>
+      <c r="B114" s="16" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="36" r="C114">
+      <c r="C114" s="16" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="26" r="D114">
+      <c r="D114" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115">
-      <c t="s" s="24" r="A115">
+    <row r="115" spans="1:4" ht="18" customHeight="1">
+      <c r="A115" s="11" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="36" r="B115">
+      <c r="B115" s="16" t="s">
         <v>231</v>
       </c>
-      <c t="s" s="36" r="C115">
+      <c r="C115" s="16" t="s">
         <v>232</v>
       </c>
-      <c t="s" s="26" r="D115">
+      <c r="D115" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="116">
-      <c s="2" r="A116"/>
-      <c t="s" s="36" r="B116">
+    <row r="116" spans="1:4" ht="18" customHeight="1">
+      <c r="A116" s="1"/>
+      <c r="B116" s="16" t="s">
         <v>233</v>
       </c>
-      <c t="s" s="36" r="C116">
+      <c r="C116" s="16" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="26" r="D116">
+      <c r="D116" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="117">
-      <c t="s" s="24" r="A117">
+    <row r="117" spans="1:4" ht="18" customHeight="1">
+      <c r="A117" s="11" t="s">
         <v>234</v>
       </c>
-      <c t="s" s="36" r="B117">
+      <c r="B117" s="16" t="s">
         <v>235</v>
       </c>
-      <c t="s" s="36" r="C117">
+      <c r="C117" s="16" t="s">
         <v>236</v>
       </c>
-      <c t="s" s="26" r="D117">
+      <c r="D117" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118">
-      <c s="24" r="A118"/>
-      <c t="s" s="36" r="B118">
+    <row r="118" spans="1:4" ht="18" customHeight="1">
+      <c r="A118" s="11"/>
+      <c r="B118" s="16" t="s">
         <v>237</v>
       </c>
-      <c t="s" s="36" r="C118">
+      <c r="C118" s="16" t="s">
         <v>238</v>
       </c>
-      <c t="s" s="26" r="D118">
+      <c r="D118" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119">
-      <c t="s" s="24" r="A119">
+    <row r="119" spans="1:4" ht="18" customHeight="1">
+      <c r="A119" s="11" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="36" r="B119">
+      <c r="B119" s="16" t="s">
         <v>239</v>
       </c>
-      <c t="s" s="36" r="C119">
+      <c r="C119" s="16" t="s">
         <v>240</v>
       </c>
-      <c t="s" s="26" r="D119">
+      <c r="D119" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="120">
-      <c s="2" r="A120"/>
-      <c t="s" s="36" r="B120">
+    <row r="120" spans="1:4" ht="18" customHeight="1">
+      <c r="A120" s="1"/>
+      <c r="B120" s="16" t="s">
         <v>199</v>
       </c>
-      <c t="s" s="36" r="C120">
+      <c r="C120" s="16" t="s">
         <v>241</v>
       </c>
-      <c t="s" s="26" r="D120">
+      <c r="D120" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="121">
-      <c t="s" s="24" r="A121">
+    <row r="121" spans="1:4" ht="18" customHeight="1">
+      <c r="A121" s="11" t="s">
         <v>242</v>
       </c>
-      <c t="s" s="34" r="B121">
+      <c r="B121" s="15" t="s">
         <v>243</v>
       </c>
-      <c t="s" s="34" r="C121">
+      <c r="C121" s="15" t="s">
         <v>244</v>
       </c>
-      <c t="s" s="26" r="D121">
+      <c r="D121" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122">
-      <c s="24" r="A122"/>
-      <c t="s" s="36" r="B122">
+    <row r="122" spans="1:4" ht="18" customHeight="1">
+      <c r="A122" s="11"/>
+      <c r="B122" s="16" t="s">
         <v>245</v>
       </c>
-      <c t="s" s="36" r="C122">
+      <c r="C122" s="16" t="s">
         <v>246</v>
       </c>
-      <c t="s" s="26" r="D122">
+      <c r="D122" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123">
-      <c t="s" s="24" r="A123">
+    <row r="123" spans="1:4" ht="18" customHeight="1">
+      <c r="A123" s="11" t="s">
         <v>107</v>
       </c>
-      <c t="s" s="36" r="B123">
+      <c r="B123" s="16" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="36" r="C123">
+      <c r="C123" s="16" t="s">
         <v>248</v>
       </c>
-      <c t="s" s="26" r="D123">
+      <c r="D123" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="124">
-      <c s="24" r="A124"/>
-      <c t="s" s="36" r="B124">
+    <row r="124" spans="1:4" ht="18" customHeight="1">
+      <c r="A124" s="11"/>
+      <c r="B124" s="16" t="s">
         <v>249</v>
       </c>
-      <c t="s" s="36" r="C124">
+      <c r="C124" s="16" t="s">
         <v>250</v>
       </c>
-      <c t="s" s="26" r="D124">
+      <c r="D124" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="125">
-      <c t="s" s="24" r="A125">
+    <row r="125" spans="1:4" ht="18" customHeight="1">
+      <c r="A125" s="11" t="s">
         <v>139</v>
       </c>
-      <c t="s" s="36" r="B125">
+      <c r="B125" s="16" t="s">
         <v>251</v>
       </c>
-      <c t="s" s="36" r="C125">
+      <c r="C125" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D125">
+      <c r="D125" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="126">
-      <c s="2" r="A126"/>
-      <c t="s" s="36" r="B126">
+    <row r="126" spans="1:4" ht="18" customHeight="1">
+      <c r="A126" s="1"/>
+      <c r="B126" s="16" t="s">
         <v>253</v>
       </c>
-      <c t="s" s="36" r="C126">
+      <c r="C126" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D126">
+      <c r="D126" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="127">
-      <c s="2" r="A127"/>
-      <c t="s" s="36" r="B127">
+    <row r="127" spans="1:4" ht="18" customHeight="1">
+      <c r="A127" s="1"/>
+      <c r="B127" s="16" t="s">
         <v>254</v>
       </c>
-      <c t="s" s="36" r="C127">
+      <c r="C127" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D127">
+      <c r="D127" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128">
-      <c s="2" r="A128"/>
-      <c t="s" s="36" r="B128">
+    <row r="128" spans="1:4" ht="18" customHeight="1">
+      <c r="A128" s="1"/>
+      <c r="B128" s="16" t="s">
         <v>255</v>
       </c>
-      <c t="s" s="36" r="C128">
+      <c r="C128" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D128">
+      <c r="D128" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129">
-      <c s="2" r="A129"/>
-      <c t="s" s="36" r="B129">
+    <row r="129" spans="1:4" ht="18" customHeight="1">
+      <c r="A129" s="1"/>
+      <c r="B129" s="16" t="s">
         <v>256</v>
       </c>
-      <c t="s" s="36" r="C129">
+      <c r="C129" s="16" t="s">
         <v>257</v>
       </c>
-      <c t="s" s="26" r="D129">
+      <c r="D129" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130">
-      <c s="2" r="A130"/>
-      <c t="s" s="36" r="B130">
+    <row r="130" spans="1:4" ht="18" customHeight="1">
+      <c r="A130" s="1"/>
+      <c r="B130" s="16" t="s">
         <v>258</v>
       </c>
-      <c t="s" s="36" r="C130">
+      <c r="C130" s="16" t="s">
         <v>259</v>
       </c>
-      <c t="s" s="26" r="D130">
+      <c r="D130" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131">
-      <c s="2" r="A131"/>
-      <c t="s" s="36" r="B131">
+    <row r="131" spans="1:4" ht="18" customHeight="1">
+      <c r="A131" s="1"/>
+      <c r="B131" s="16" t="s">
         <v>260</v>
       </c>
-      <c t="s" s="36" r="C131">
+      <c r="C131" s="16" t="s">
         <v>261</v>
       </c>
-      <c t="s" s="26" r="D131">
+      <c r="D131" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132">
-      <c s="2" r="A132"/>
-      <c t="s" s="36" r="B132">
+    <row r="132" spans="1:4" ht="18" customHeight="1">
+      <c r="A132" s="1"/>
+      <c r="B132" s="16" t="s">
         <v>262</v>
       </c>
-      <c t="s" s="36" r="C132">
+      <c r="C132" s="16" t="s">
         <v>221</v>
       </c>
-      <c t="s" s="26" r="D132">
+      <c r="D132" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="133">
-      <c s="2" r="A133"/>
-      <c t="s" s="36" r="B133">
+    <row r="133" spans="1:4" ht="18" customHeight="1">
+      <c r="A133" s="1"/>
+      <c r="B133" s="16" t="s">
         <v>263</v>
       </c>
-      <c t="s" s="36" r="C133">
+      <c r="C133" s="16" t="s">
         <v>221</v>
       </c>
-      <c t="s" s="26" r="D133">
+      <c r="D133" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134">
-      <c s="2" r="A134"/>
-      <c t="s" s="36" r="B134">
+    <row r="134" spans="1:4" ht="18" customHeight="1">
+      <c r="A134" s="1"/>
+      <c r="B134" s="16" t="s">
         <v>264</v>
       </c>
-      <c s="36" r="C134"/>
-      <c t="s" s="26" r="D134">
+      <c r="C134" s="16"/>
+      <c r="D134" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="135">
-      <c s="2" r="A135"/>
-      <c t="s" s="36" r="B135">
+    <row r="135" spans="1:4" ht="18" customHeight="1">
+      <c r="A135" s="1"/>
+      <c r="B135" s="16" t="s">
         <v>266</v>
       </c>
-      <c s="36" r="C135"/>
-      <c t="s" s="26" r="D135">
+      <c r="C135" s="16"/>
+      <c r="D135" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="136">
-      <c s="24" r="A136"/>
-      <c t="s" s="36" r="B136">
+    <row r="136" spans="1:4" ht="18" customHeight="1">
+      <c r="A136" s="11"/>
+      <c r="B136" s="16" t="s">
         <v>268</v>
       </c>
-      <c t="s" s="36" r="C136">
+      <c r="C136" s="16" t="s">
         <v>259</v>
       </c>
-      <c t="s" s="26" r="D136">
+      <c r="D136" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137">
-      <c s="24" r="A137"/>
-      <c t="s" s="36" r="B137">
+    <row r="137" spans="1:4" ht="18" customHeight="1">
+      <c r="A137" s="11"/>
+      <c r="B137" s="16" t="s">
         <v>269</v>
       </c>
-      <c t="s" s="36" r="C137">
+      <c r="C137" s="16" t="s">
         <v>270</v>
       </c>
-      <c t="s" s="26" r="D137">
+      <c r="D137" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138">
-      <c t="s" s="24" r="A138">
+    <row r="138" spans="1:4" ht="18" customHeight="1">
+      <c r="A138" s="11"/>
+      <c r="B138" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18" customHeight="1">
+      <c r="A139" s="11" t="s">
         <v>163</v>
       </c>
-      <c t="s" s="36" r="B138">
+      <c r="B139" s="16" t="s">
         <v>271</v>
       </c>
-      <c t="s" s="36" r="C138">
+      <c r="C139" s="16" t="s">
         <v>167</v>
       </c>
-      <c t="s" s="26" r="D138">
+      <c r="D139" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="139">
-      <c s="2" r="A139"/>
-      <c t="s" s="36" r="B139">
+    <row r="140" spans="1:4" ht="18" customHeight="1">
+      <c r="A140" s="1"/>
+      <c r="B140" s="16" t="s">
         <v>272</v>
       </c>
-      <c t="s" s="36" r="C139">
+      <c r="C140" s="16" t="s">
         <v>273</v>
       </c>
-      <c t="s" s="26" r="D139">
+      <c r="D140" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="140">
-      <c s="24" r="A140"/>
-      <c t="s" s="36" r="B140">
+    <row r="141" spans="1:4" ht="18" customHeight="1">
+      <c r="A141" s="11"/>
+      <c r="B141" s="16" t="s">
         <v>274</v>
       </c>
-      <c t="s" s="36" r="C140">
+      <c r="C141" s="16" t="s">
         <v>275</v>
       </c>
-      <c t="s" s="26" r="D140">
+      <c r="D141" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="141">
-      <c s="24" r="A141"/>
-      <c t="s" s="36" r="B141">
+    <row r="142" spans="1:4" ht="18" customHeight="1">
+      <c r="A142" s="11"/>
+      <c r="B142" s="16" t="s">
         <v>276</v>
       </c>
-      <c t="s" s="36" r="C141">
+      <c r="C142" s="16" t="s">
         <v>277</v>
       </c>
-      <c t="s" s="26" r="D141">
+      <c r="D142" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142">
-      <c t="s" s="24" r="A142">
+    <row r="143" spans="1:4" ht="18" customHeight="1">
+      <c r="A143" s="11" t="s">
         <v>189</v>
       </c>
-      <c t="s" s="36" r="B142">
+      <c r="B143" s="16" t="s">
         <v>278</v>
       </c>
-      <c t="s" s="36" r="C142">
+      <c r="C143" s="16" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="26" r="D142">
+      <c r="D143" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="143">
-      <c s="24" r="A143"/>
-      <c t="s" s="36" r="B143">
+    <row r="144" spans="1:4" ht="18" customHeight="1">
+      <c r="A144" s="11"/>
+      <c r="B144" s="16" t="s">
         <v>279</v>
       </c>
-      <c t="s" s="36" r="C143">
+      <c r="C144" s="16" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="26" r="D143">
+      <c r="D144" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144">
-      <c s="24" r="A144"/>
-      <c t="s" s="36" r="B144">
+    <row r="145" spans="1:4" ht="18" customHeight="1">
+      <c r="A145" s="11"/>
+      <c r="B145" s="16" t="s">
         <v>280</v>
       </c>
-      <c t="s" s="36" r="C144">
+      <c r="C145" s="16" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="26" r="D144">
+      <c r="D145" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="145">
-      <c s="36" r="A145"/>
-      <c s="36" r="B145"/>
-      <c s="36" r="C145"/>
-      <c s="7" r="D145"/>
-    </row>
-    <row r="146">
-      <c t="s" s="43" r="A146">
+    <row r="146" spans="1:4" ht="18" customHeight="1">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" ht="18" customHeight="1">
+      <c r="A147" s="24" t="s">
         <v>282</v>
       </c>
-      <c s="28" r="B146"/>
-      <c s="28" r="C146"/>
-      <c s="4" r="D146"/>
-    </row>
-    <row r="147">
-      <c t="s" s="10" r="A147">
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="26"/>
+    </row>
+    <row r="148" spans="1:4" ht="18" customHeight="1">
+      <c r="A148" s="6" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="46" r="B147">
+      <c r="B148" s="17" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="46" r="C147">
+      <c r="C148" s="17" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="31" r="D147">
+      <c r="D148" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148">
-      <c t="s" s="24" r="A148">
+    <row r="149" spans="1:4" ht="18" customHeight="1">
+      <c r="A149" s="11" t="s">
         <v>283</v>
       </c>
-      <c t="s" s="36" r="B148">
+      <c r="B149" s="16" t="s">
         <v>284</v>
       </c>
-      <c t="s" s="36" r="C148">
+      <c r="C149" s="16" t="s">
         <v>285</v>
       </c>
-      <c t="s" s="26" r="D148">
+      <c r="D149" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149">
-      <c t="s" s="24" r="A149">
+    <row r="150" spans="1:4" ht="18" customHeight="1">
+      <c r="A150" s="11" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="36" r="B149">
+      <c r="B150" s="16" t="s">
         <v>286</v>
       </c>
-      <c t="s" s="36" r="C149">
+      <c r="C150" s="16" t="s">
         <v>287</v>
       </c>
-      <c t="s" s="26" r="D149">
+      <c r="D150" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="150">
-      <c s="24" r="A150"/>
-      <c t="s" s="36" r="B150">
+    <row r="151" spans="1:4" ht="18" customHeight="1">
+      <c r="A151" s="11"/>
+      <c r="B151" s="16" t="s">
         <v>288</v>
       </c>
-      <c t="s" s="36" r="C150">
+      <c r="C151" s="16" t="s">
         <v>287</v>
       </c>
-      <c t="s" s="26" r="D150">
+      <c r="D151" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="151">
-      <c s="24" r="A151"/>
-      <c t="s" s="36" r="B151">
+    <row r="152" spans="1:4" ht="18" customHeight="1">
+      <c r="A152" s="11"/>
+      <c r="B152" s="16" t="s">
         <v>289</v>
       </c>
-      <c t="s" s="36" r="C151">
+      <c r="C152" s="16" t="s">
         <v>287</v>
       </c>
-      <c t="s" s="26" r="D151">
+      <c r="D152" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="152">
-      <c t="s" s="24" r="A152">
+    <row r="153" spans="1:4" ht="18" customHeight="1">
+      <c r="A153" s="11" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="36" r="B152">
+      <c r="B153" s="16" t="s">
         <v>290</v>
       </c>
-      <c t="s" s="36" r="C152">
+      <c r="C153" s="16" t="s">
         <v>291</v>
       </c>
-      <c t="s" s="26" r="D152">
+      <c r="D153" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="153">
-      <c s="2" r="A153"/>
-      <c t="s" s="36" r="B153">
+    <row r="154" spans="1:4" ht="18" customHeight="1">
+      <c r="A154" s="1"/>
+      <c r="B154" s="16" t="s">
         <v>293</v>
       </c>
-      <c t="s" s="36" r="C153">
+      <c r="C154" s="16" t="s">
         <v>294</v>
       </c>
-      <c t="s" s="26" r="D153">
+      <c r="D154" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="154">
-      <c t="s" s="24" r="A154">
+    <row r="155" spans="1:4" ht="18" customHeight="1">
+      <c r="A155" s="11" t="s">
         <v>222</v>
       </c>
-      <c t="s" s="36" r="B154">
+      <c r="B155" s="16" t="s">
         <v>295</v>
       </c>
-      <c t="s" s="36" r="C154">
+      <c r="C155" s="16" t="s">
         <v>296</v>
       </c>
-      <c t="s" s="26" r="D154">
+      <c r="D155" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155">
-      <c s="2" r="A155"/>
-      <c t="s" s="36" r="B155">
+    <row r="156" spans="1:4" ht="18" customHeight="1">
+      <c r="A156" s="1"/>
+      <c r="B156" s="16" t="s">
         <v>297</v>
       </c>
-      <c t="s" s="36" r="C155">
+      <c r="C156" s="16" t="s">
         <v>296</v>
       </c>
-      <c t="s" s="26" r="D155">
+      <c r="D156" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156">
-      <c t="s" s="24" r="A156">
+    <row r="157" spans="1:4" ht="18" customHeight="1">
+      <c r="A157" s="35"/>
+      <c r="B157" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="D157" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18" customHeight="1">
+      <c r="A158" s="11" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="36" r="B156">
+      <c r="B158" s="16" t="s">
         <v>298</v>
       </c>
-      <c t="s" s="36" r="C156">
+      <c r="C158" s="16" t="s">
         <v>299</v>
       </c>
-      <c t="s" s="26" r="D156">
+      <c r="D158" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157">
-      <c t="s" s="24" r="A157">
+    <row r="159" spans="1:4" ht="18" customHeight="1">
+      <c r="A159" s="11" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="36" r="B157">
+      <c r="B159" s="16" t="s">
         <v>301</v>
       </c>
-      <c t="s" s="36" r="C157">
+      <c r="C159" s="16" t="s">
         <v>302</v>
       </c>
-      <c t="s" s="26" r="D157">
+      <c r="D159" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="158">
-      <c t="s" s="24" r="A158">
+    <row r="160" spans="1:4" ht="18" customHeight="1">
+      <c r="A160" s="11" t="s">
         <v>90</v>
       </c>
-      <c t="s" s="36" r="B158">
+      <c r="B160" s="16" t="s">
         <v>303</v>
       </c>
-      <c t="s" s="36" r="C158">
+      <c r="C160" s="16" t="s">
         <v>94</v>
       </c>
-      <c t="s" s="26" r="D158">
+      <c r="D160" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159">
-      <c s="24" r="A159"/>
-      <c t="s" s="36" r="B159">
+    <row r="161" spans="1:4" ht="18" customHeight="1">
+      <c r="A161" s="11"/>
+      <c r="B161" s="16" t="s">
         <v>304</v>
       </c>
-      <c s="36" r="C159"/>
-      <c t="s" s="26" r="D159">
+      <c r="C161" s="16"/>
+      <c r="D161" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="160">
-      <c t="s" s="24" r="A160">
+    <row r="162" spans="1:4" ht="18" customHeight="1">
+      <c r="A162" s="11" t="s">
         <v>139</v>
       </c>
-      <c t="s" s="36" r="B160">
+      <c r="B162" s="16" t="s">
         <v>305</v>
       </c>
-      <c t="s" s="36" r="C160">
+      <c r="C162" s="16" t="s">
         <v>306</v>
       </c>
-      <c t="s" s="26" r="D160">
+      <c r="D162" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="161">
-      <c s="2" r="A161"/>
-      <c t="s" s="36" r="B161">
+    <row r="163" spans="1:4" ht="18" customHeight="1">
+      <c r="A163" s="1"/>
+      <c r="B163" s="16" t="s">
         <v>307</v>
       </c>
-      <c t="s" s="36" r="C161">
+      <c r="C163" s="16" t="s">
         <v>308</v>
       </c>
-      <c t="s" s="26" r="D161">
+      <c r="D163" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="162">
-      <c s="2" r="A162"/>
-      <c t="s" s="36" r="B162">
+    <row r="164" spans="1:4" ht="18" customHeight="1">
+      <c r="A164" s="1"/>
+      <c r="B164" s="16" t="s">
         <v>309</v>
       </c>
-      <c t="s" s="36" r="C162">
+      <c r="C164" s="16" t="s">
         <v>310</v>
       </c>
-      <c t="s" s="26" r="D162">
+      <c r="D164" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="163">
-      <c s="2" r="A163"/>
-      <c t="s" s="36" r="B163">
+    <row r="165" spans="1:4" ht="18" customHeight="1">
+      <c r="A165" s="1"/>
+      <c r="B165" s="16" t="s">
         <v>311</v>
       </c>
-      <c t="s" s="36" r="C163">
+      <c r="C165" s="16" t="s">
         <v>310</v>
       </c>
-      <c t="s" s="26" r="D163">
+      <c r="D165" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="164">
-      <c s="2" r="A164"/>
-      <c t="s" s="36" r="B164">
+    <row r="166" spans="1:4" ht="18" customHeight="1">
+      <c r="A166" s="1"/>
+      <c r="B166" s="16" t="s">
         <v>312</v>
       </c>
-      <c t="s" s="36" r="C164">
+      <c r="C166" s="16" t="s">
         <v>313</v>
       </c>
-      <c t="s" s="26" r="D164">
+      <c r="D166" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="165">
-      <c s="2" r="A165"/>
-      <c t="s" s="36" r="B165">
+    <row r="167" spans="1:4" ht="18" customHeight="1">
+      <c r="A167" s="1"/>
+      <c r="B167" s="16" t="s">
         <v>314</v>
       </c>
-      <c t="s" s="36" r="C165">
+      <c r="C167" s="16" t="s">
         <v>315</v>
       </c>
-      <c t="s" s="26" r="D165">
+      <c r="D167" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="166">
-      <c s="2" r="A166"/>
-      <c t="s" s="36" r="B166">
+    <row r="168" spans="1:4" ht="18" customHeight="1">
+      <c r="A168" s="1"/>
+      <c r="B168" s="16" t="s">
         <v>316</v>
       </c>
-      <c t="s" s="36" r="C166">
+      <c r="C168" s="16" t="s">
         <v>310</v>
       </c>
-      <c t="s" s="26" r="D166">
+      <c r="D168" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167">
-      <c s="2" r="A167"/>
-      <c t="s" s="36" r="B167">
+    <row r="169" spans="1:4" ht="18" customHeight="1">
+      <c r="A169" s="1"/>
+      <c r="B169" s="16" t="s">
         <v>317</v>
       </c>
-      <c t="s" s="36" r="C167">
+      <c r="C169" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D167">
+      <c r="D169" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="168">
-      <c s="2" r="A168"/>
-      <c t="s" s="36" r="B168">
+    <row r="170" spans="1:4" ht="18" customHeight="1">
+      <c r="A170" s="1"/>
+      <c r="B170" s="16" t="s">
         <v>318</v>
       </c>
-      <c t="s" s="36" r="C168">
+      <c r="C170" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D168">
+      <c r="D170" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169">
-      <c s="2" r="A169"/>
-      <c t="s" s="36" r="B169">
+    <row r="171" spans="1:4" ht="18" customHeight="1">
+      <c r="A171" s="1"/>
+      <c r="B171" s="16" t="s">
         <v>319</v>
       </c>
-      <c t="s" s="36" r="C169">
+      <c r="C171" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D169">
+      <c r="D171" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170">
-      <c s="2" r="A170"/>
-      <c t="s" s="36" r="B170">
+    <row r="172" spans="1:4" ht="18" customHeight="1">
+      <c r="A172" s="1"/>
+      <c r="B172" s="16" t="s">
         <v>320</v>
       </c>
-      <c t="s" s="36" r="C170">
+      <c r="C172" s="16" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="26" r="D170">
+      <c r="D172" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171">
-      <c s="2" r="A171"/>
-      <c t="s" s="36" r="B171">
+    <row r="173" spans="1:4" ht="18" customHeight="1">
+      <c r="A173" s="1"/>
+      <c r="B173" s="16" t="s">
         <v>321</v>
       </c>
-      <c t="s" s="36" r="C171">
+      <c r="C173" s="16" t="s">
         <v>322</v>
       </c>
-      <c t="s" s="26" r="D171">
+      <c r="D173" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="172">
-      <c s="2" r="A172"/>
-      <c t="s" s="36" r="B172">
+    <row r="174" spans="1:4" ht="18" customHeight="1">
+      <c r="A174" s="1"/>
+      <c r="B174" s="16" t="s">
         <v>323</v>
       </c>
-      <c t="s" s="36" r="C172">
+      <c r="C174" s="16" t="s">
         <v>324</v>
       </c>
-      <c t="s" s="26" r="D172">
+      <c r="D174" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="173">
-      <c s="24" r="A173"/>
-      <c t="s" s="36" r="B173">
+    <row r="175" spans="1:4" ht="18" customHeight="1">
+      <c r="A175" s="11"/>
+      <c r="B175" s="16" t="s">
         <v>325</v>
       </c>
-      <c t="s" s="36" r="C173">
+      <c r="C175" s="16" t="s">
         <v>326</v>
       </c>
-      <c t="s" s="26" r="D173">
+      <c r="D175" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="174">
-      <c s="24" r="A174"/>
-      <c t="s" s="36" r="B174">
+    <row r="176" spans="1:4" ht="18" customHeight="1">
+      <c r="A176" s="11"/>
+      <c r="B176" s="16" t="s">
         <v>327</v>
       </c>
-      <c t="s" s="36" r="C174">
+      <c r="C176" s="16" t="s">
         <v>322</v>
       </c>
-      <c t="s" s="26" r="D174">
+      <c r="D176" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="175">
-      <c s="24" r="A175"/>
-      <c t="s" s="36" r="B175">
+    <row r="177" spans="1:4" ht="18" customHeight="1">
+      <c r="A177" s="11"/>
+      <c r="B177" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18" customHeight="1">
+      <c r="A178" s="11"/>
+      <c r="B178" s="16" t="s">
         <v>328</v>
       </c>
-      <c t="s" s="36" r="C175">
+      <c r="C178" s="16" t="s">
         <v>329</v>
       </c>
-      <c t="s" s="26" r="D175">
+      <c r="D178" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="176">
-      <c s="24" r="A176"/>
-      <c t="s" s="36" r="B176">
+    <row r="179" spans="1:4" ht="18" customHeight="1">
+      <c r="A179" s="11"/>
+      <c r="B179" s="16" t="s">
         <v>330</v>
       </c>
-      <c t="s" s="36" r="C176">
+      <c r="C179" s="16" t="s">
         <v>331</v>
       </c>
-      <c t="s" s="26" r="D176">
+      <c r="D179" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="177">
-      <c t="s" s="24" r="A177">
+    <row r="180" spans="1:4" ht="18" customHeight="1">
+      <c r="A180" s="11" t="s">
         <v>332</v>
       </c>
-      <c t="s" s="36" r="B177">
+      <c r="B180" s="16" t="s">
         <v>333</v>
       </c>
-      <c t="s" s="36" r="C177">
+      <c r="C180" s="16" t="s">
         <v>334</v>
       </c>
-      <c t="s" s="26" r="D177">
+      <c r="D180" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="178">
-      <c s="24" r="A178"/>
-      <c t="s" s="36" r="B178">
+    <row r="181" spans="1:4" ht="18" customHeight="1">
+      <c r="A181" s="11"/>
+      <c r="B181" s="16" t="s">
         <v>335</v>
       </c>
-      <c t="s" s="36" r="C178">
+      <c r="C181" s="16" t="s">
         <v>336</v>
       </c>
-      <c t="s" s="26" r="D178">
+      <c r="D181" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="179">
-      <c s="36" r="A179"/>
-      <c s="36" r="B179"/>
-      <c s="36" r="C179"/>
-      <c s="7" r="D179"/>
-    </row>
-    <row r="180">
-      <c t="s" s="18" r="A180">
+    <row r="182" spans="1:4" ht="18" customHeight="1">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" ht="18" customHeight="1">
+      <c r="A183" s="18" t="s">
         <v>337</v>
       </c>
-      <c s="33" r="B180"/>
-      <c s="33" r="C180"/>
-      <c s="41" r="D180"/>
-    </row>
-    <row r="181">
-      <c t="s" s="5" r="A181">
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="20"/>
+    </row>
+    <row r="184" spans="1:4" ht="18" customHeight="1">
+      <c r="A184" s="3" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="23" r="B181">
+      <c r="B184" s="10" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="23" r="C181">
+      <c r="C184" s="10" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="21" r="D181">
+      <c r="D184" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="182">
-      <c t="s" s="9" r="A182">
+    <row r="185" spans="1:4" ht="18" customHeight="1">
+      <c r="A185" s="5" t="s">
         <v>283</v>
       </c>
-      <c t="s" s="16" r="B182">
+      <c r="B185" s="8" t="s">
         <v>338</v>
       </c>
-      <c t="s" s="16" r="C182">
+      <c r="C185" s="8" t="s">
         <v>339</v>
       </c>
-      <c t="s" s="3" r="D182">
+      <c r="D185" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="183">
-      <c t="s" s="24" r="A183">
+    <row r="186" spans="1:4" ht="18" customHeight="1">
+      <c r="A186" s="11" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="36" r="B183">
+      <c r="B186" s="16" t="s">
         <v>340</v>
       </c>
-      <c t="s" s="36" r="C183">
+      <c r="C186" s="16" t="s">
         <v>341</v>
       </c>
-      <c t="s" s="26" r="D183">
+      <c r="D186" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="184">
-      <c s="24" r="A184"/>
-      <c t="s" s="36" r="B184">
+    <row r="187" spans="1:4" ht="18" customHeight="1">
+      <c r="A187" s="11"/>
+      <c r="B187" s="16" t="s">
         <v>342</v>
       </c>
-      <c t="s" s="36" r="C184">
+      <c r="C187" s="16" t="s">
         <v>343</v>
       </c>
-      <c t="s" s="26" r="D184">
+      <c r="D187" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="185">
-      <c s="24" r="A185"/>
-      <c t="s" s="36" r="B185">
+    <row r="188" spans="1:4" ht="18" customHeight="1">
+      <c r="A188" s="11"/>
+      <c r="B188" s="16" t="s">
         <v>344</v>
       </c>
-      <c s="36" r="C185"/>
-      <c t="s" s="26" r="D185">
+      <c r="C188" s="16"/>
+      <c r="D188" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="186">
-      <c s="24" r="A186"/>
-      <c t="s" s="36" r="B186">
+    <row r="189" spans="1:4" ht="18" customHeight="1">
+      <c r="A189" s="11"/>
+      <c r="B189" s="16" t="s">
         <v>346</v>
       </c>
-      <c s="36" r="C186"/>
-      <c t="s" s="26" r="D186">
+      <c r="C189" s="16"/>
+      <c r="D189" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="187">
-      <c s="24" r="A187"/>
-      <c t="s" s="36" r="B187">
+    <row r="190" spans="1:4" ht="18" customHeight="1">
+      <c r="A190" s="11"/>
+      <c r="B190" s="16" t="s">
         <v>347</v>
       </c>
-      <c t="s" s="36" r="C187">
+      <c r="C190" s="16" t="s">
         <v>348</v>
       </c>
-      <c t="s" s="26" r="D187">
+      <c r="D190" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="188">
-      <c t="s" s="24" r="A188">
+    <row r="191" spans="1:4" ht="18" customHeight="1">
+      <c r="A191" s="11" t="s">
         <v>349</v>
       </c>
-      <c t="s" s="36" r="B188">
+      <c r="B191" s="16" t="s">
         <v>350</v>
       </c>
-      <c t="s" s="36" r="C188">
+      <c r="C191" s="16" t="s">
         <v>351</v>
       </c>
-      <c t="s" s="26" r="D188">
+      <c r="D191" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="189">
-      <c s="36" r="A189"/>
-      <c s="36" r="B189"/>
-      <c s="36" r="C189"/>
-      <c s="7" r="D189"/>
-    </row>
-    <row r="190">
-      <c t="s" s="12" r="A190">
+    <row r="192" spans="1:4" ht="18" customHeight="1">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" ht="18" customHeight="1">
+      <c r="A193" s="27" t="s">
         <v>352</v>
       </c>
-      <c s="47" r="B190"/>
-      <c s="47" r="C190"/>
-      <c s="44" r="D190"/>
-    </row>
-    <row r="191">
-      <c t="s" s="10" r="A191">
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="29"/>
+    </row>
+    <row r="194" spans="1:4" ht="18" customHeight="1">
+      <c r="A194" s="6" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="46" r="B191">
+      <c r="B194" s="17" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="46" r="C191">
+      <c r="C194" s="17" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="31" r="D191">
+      <c r="D194" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="192">
-      <c t="s" s="24" r="A192">
+    <row r="195" spans="1:4" ht="18" customHeight="1">
+      <c r="A195" s="11" t="s">
         <v>222</v>
       </c>
-      <c t="s" s="36" r="B192">
+      <c r="B195" s="16" t="s">
         <v>353</v>
       </c>
-      <c t="s" s="36" r="C192">
+      <c r="C195" s="16" t="s">
         <v>354</v>
       </c>
-      <c t="s" s="26" r="D192">
+      <c r="D195" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="193">
-      <c s="2" r="A193"/>
-      <c t="s" s="36" r="B193">
+    <row r="196" spans="1:4" ht="18" customHeight="1">
+      <c r="A196" s="11"/>
+      <c r="B196" s="16" t="s">
         <v>356</v>
       </c>
-      <c t="s" s="36" r="C193">
+      <c r="C196" s="16" t="s">
         <v>357</v>
       </c>
-      <c t="s" s="26" r="D193">
+      <c r="D196" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="194">
-      <c s="36" r="A194"/>
-      <c s="36" r="B194"/>
-      <c s="36" r="C194"/>
-      <c s="7" r="D194"/>
-    </row>
-    <row r="195">
-      <c t="s" s="17" r="A195">
+    <row r="197" spans="1:4" ht="18" customHeight="1">
+      <c r="A197" s="1"/>
+      <c r="B197" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C197" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="D197" s="34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="18" customHeight="1">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" ht="18" customHeight="1">
+      <c r="A199" s="30" t="s">
         <v>358</v>
       </c>
-      <c s="39" r="B195"/>
-      <c s="39" r="C195"/>
-      <c s="20" r="D195"/>
-    </row>
-    <row r="196">
-      <c t="s" s="10" r="A196">
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="32"/>
+    </row>
+    <row r="200" spans="1:4" ht="18" customHeight="1">
+      <c r="A200" s="6" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="46" r="B196">
+      <c r="B200" s="17" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="46" r="C196">
+      <c r="C200" s="17" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="31" r="D196">
+      <c r="D200" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197">
-      <c t="s" s="24" r="A197">
+    <row r="201" spans="1:4" ht="18" customHeight="1">
+      <c r="A201" s="11" t="s">
         <v>359</v>
       </c>
-      <c s="36" r="B197"/>
-      <c t="s" s="36" r="C197">
+      <c r="B201" s="16"/>
+      <c r="C201" s="16" t="s">
         <v>360</v>
       </c>
-      <c t="s" s="26" r="D197">
+      <c r="D201" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="198">
-      <c s="24" r="A198"/>
-      <c s="36" r="B198"/>
-      <c t="s" s="36" r="C198">
+    <row r="202" spans="1:4" ht="18" customHeight="1">
+      <c r="A202" s="11"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="16" t="s">
         <v>362</v>
       </c>
-      <c t="s" s="26" r="D198">
+      <c r="D202" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="199">
-      <c t="s" s="24" r="A199">
+    <row r="203" spans="1:4" ht="18" customHeight="1">
+      <c r="A203" s="11" t="s">
         <v>363</v>
       </c>
-      <c t="s" s="36" r="B199">
+      <c r="B203" s="16" t="s">
         <v>364</v>
       </c>
-      <c t="s" s="36" r="C199">
+      <c r="C203" s="16" t="s">
         <v>365</v>
       </c>
-      <c t="s" s="26" r="D199">
+      <c r="D203" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="200">
-      <c s="24" r="A200"/>
-      <c t="s" s="36" r="B200">
+    <row r="204" spans="1:4" ht="18" customHeight="1">
+      <c r="A204" s="11"/>
+      <c r="B204" s="16" t="s">
         <v>366</v>
       </c>
-      <c t="s" s="36" r="C200">
+      <c r="C204" s="16" t="s">
         <v>365</v>
       </c>
-      <c t="s" s="26" r="D200">
+      <c r="D204" s="12" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A199:D199"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A193:D193"/>
   </mergeCells>
+  <phoneticPr fontId="31"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>